--- a/resource/quiz/202104_revoicequizlist.xlsx
+++ b/resource/quiz/202104_revoicequizlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkdung/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkdung/Library/Caches/com.binarynights.ForkLift2/#6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAACE4A8-055A-1A46-A331-EA57D36B2C7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58530BC-B48D-C049-A863-00E89A82F351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="210">
   <si>
     <t>CHOICE3</t>
   </si>
@@ -771,30 +771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다음 중, 한국의 증권거래소가 아닌 것은 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코스닥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나스닥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코스피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코넥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국의 증권 거래소는, 코넥스, 코스닥, 코스콤, 코스피가 있습니다. 나스닥은 뉴욕 증권 거래소입니다.!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세계 2차대전 당시 미군들은 이탈리아 사람들이 즐겨마시는 에스프레소가 너무 진해 물을 부어 먹었는데요. 이것을 보고 미국 사람들이 마시는 커피라는 의미의 아메리카노라고 불리게 됐다고 해요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,13 +801,55 @@
   <si>
     <t>사실, 승전보를 전한 전령의 이름은 페이디피데스이며 스파르타에 원군을 요청하기 위해 파견된 정령이었대요. 실제로는 죽지 않고 그리스로 잘 돌아갔다고 하네요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 신조에 퀴즈에요.</t>
+  </si>
+  <si>
+    <t>10대들이 만들어 낸 줄임말이자 신조어 중, '버스 카드 충전'을 의미하는 신조어는 무엇일까요?</t>
+  </si>
+  <si>
+    <t>츤데레</t>
+  </si>
+  <si>
+    <t>TMI</t>
+  </si>
+  <si>
+    <t>버카충</t>
+  </si>
+  <si>
+    <t>마상</t>
+  </si>
+  <si>
+    <t>버카충은 버스 카드 충전에서 앞글자를 따서 만든 줄임말로 10대들이 많이 사용하는 신조어라고 해요.</t>
+  </si>
+  <si>
+    <t>오늘은 속담에 관한 퀴즈에요.</t>
+  </si>
+  <si>
+    <t>이 속담은 두 가지 뜻으로 쓰이는데요. 행동이 매우 민첩함을 이르는말이기도 하고 어떤 행동을 당장 해치우지 못하여 안달하는 조급한 성질을 이르는말로, 이것에 콩 볶아 먹겠다라는 속담인데요. 여기서 이것은 무엇일까요?</t>
+  </si>
+  <si>
+    <t>후라이팬</t>
+  </si>
+  <si>
+    <t>번갯불</t>
+  </si>
+  <si>
+    <t>모닥불</t>
+  </si>
+  <si>
+    <t>돌덩이</t>
+  </si>
+  <si>
+    <t>번갯불에 콩 볶아 먹겠다라는 속담은 번쩍하는 번갯불에 콩을 볶아 먹을 만큼 행동이 무척 빠르다는 말이에요. 또 성질이 조급하여 무엇이든지 당장 해치우려하는 행동을 이르는 말이기도 해요.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +892,19 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -897,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,8 +947,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B21E13-519B-49F6-A298-E0290A1CE3D3}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -1261,7 +1295,7 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
@@ -1300,76 +1334,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18">
+    <row r="2" spans="1:17">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="B2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="7">
         <v>2</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="J3" s="4">
         <v>3</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1399,12 +1439,12 @@
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:17">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1436,7 +1476,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:17">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1468,7 +1508,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1">
+    <row r="7" spans="1:17" ht="17.25" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1497,10 +1537,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1529,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1567,7 +1607,7 @@
       <c r="L9" s="4"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:17">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1579,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>59</v>
@@ -1602,7 +1642,7 @@
       <c r="L10" s="4"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:17">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1632,12 +1672,12 @@
         <v>1</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1">
+    <row r="12" spans="1:17" ht="17.25" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1667,12 +1707,12 @@
         <v>2</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:17">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1707,7 +1747,7 @@
       <c r="L13" s="4"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:17">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1742,7 +1782,7 @@
       <c r="L14" s="4"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:17">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1777,7 +1817,7 @@
       <c r="L15" s="4"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:17">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1951,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20"/>
@@ -1986,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21"/>
@@ -2021,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22"/>
@@ -2268,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29"/>

--- a/resource/quiz/202104_revoicequizlist.xlsx
+++ b/resource/quiz/202104_revoicequizlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkdung/Library/Caches/com.binarynights.ForkLift2/#6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkdung/Library/Caches/com.binarynights.ForkLift2/#0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58530BC-B48D-C049-A863-00E89A82F351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FCE571-EB63-FA4B-8958-9AE6208DBEDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
   </bookViews>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매년 여름 무분별한 전력 소비량 때문에 이것에 대한 우려가 심각한데요, 이것은 전력 공급이 중단되어 해당 지역이 어두워지는 일인데요. 우리나라에서는 2011년 최초로 이것 사태가 벌어져 모두를 공포에 떨게 했어요. 발전소나 송전소, 변전소 등의 고장이나 전력과부하로 특정 지역에서 대규모로 전기가 완전히 끊기는 현상인 이것은 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경제용어에 관한 퀴즈에요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,10 +775,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이것은 출생률의 급격한 상승기를 말해요. 우리나라는 육이오 전쟁이 끝난 후, 이 시기를 맞이했는데요. 아이를 가지고 싶어 하는 어떤 시기의 공통된 사회적 경향인, 이것은 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디 마케팅은, 고의로 고객의 수요를 줄이는 마케팅 기법으로, 제품에 대한 이미지와 브랜드 가치를 향상시키고 특정 고객들의 충성도를 강화시키는 효과를 노리는 마케팅이에요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -843,6 +835,14 @@
   </si>
   <si>
     <t>번갯불에 콩 볶아 먹겠다라는 속담은 번쩍하는 번갯불에 콩을 볶아 먹을 만큼 행동이 무척 빠르다는 말이에요. 또 성질이 조급하여 무엇이든지 당장 해치우려하는 행동을 이르는 말이기도 해요.</t>
+  </si>
+  <si>
+    <t>이것은 출생률의 급격한 상승기를 말해요. 우리나라는 육이오 전쟁이 끝난 후, 이 시기를 맞이했는데요. 아이를 가지고 싶어 하는 어떤 시기의 공통된 사회적 경향인 이것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매년 여름 무분별한 전력 소비량 때문에 이것에 대한 우려가 심각한데요, 이것은 전력 공급이 중단되어 해당 지역이 어두워지는 일인데요. 우리나라에서는 2011년 최초로 이것 사태가 일어나 모두를 공포에 떨게 했어요. 발전소나 송전소, 변전소 등의 고장이나 전력과부하로 특정 지역에서 대규모로 전기가 완전히 끊기는 현상인 이것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B21E13-519B-49F6-A298-E0290A1CE3D3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -1297,10 +1297,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -1315,19 +1315,19 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4" t="s">
@@ -1339,32 +1339,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="7">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="7">
-        <v>2</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="L2" s="6"/>
     </row>
@@ -1373,36 +1373,36 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="J3" s="4">
         <v>3</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1424,22 +1424,22 @@
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4"/>
@@ -1449,31 +1449,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1481,31 +1481,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="J6" s="1">
         <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1">
@@ -1513,31 +1513,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1545,31 +1545,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1">
@@ -1577,7 +1577,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -1587,22 +1587,22 @@
         <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9"/>
@@ -1612,32 +1612,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J10" s="4">
         <v>4</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10"/>
@@ -1654,25 +1654,25 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11"/>
@@ -1682,32 +1682,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" s="4">
         <v>2</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12"/>
@@ -1717,32 +1717,32 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" s="4">
         <v>4</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13"/>
@@ -1752,32 +1752,32 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="4">
         <v>3</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14"/>
@@ -1787,32 +1787,32 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J15" s="4">
         <v>2</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15"/>
@@ -1822,32 +1822,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16"/>
@@ -1857,32 +1857,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" s="4">
         <v>3</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17"/>
@@ -1892,32 +1892,32 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
@@ -1929,36 +1929,36 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J19" s="4">
         <v>3</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" customHeight="1">
@@ -1976,22 +1976,22 @@
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20" s="4">
         <v>3</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20"/>
@@ -2011,22 +2011,22 @@
         <v>11</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21"/>
@@ -2046,22 +2046,22 @@
         <v>14</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J22" s="4">
         <v>2</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22"/>
@@ -2071,36 +2071,36 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J23" s="4">
         <v>3</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2108,32 +2108,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" s="4">
         <v>3</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -2143,32 +2143,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J25" s="4">
         <v>3</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -2178,32 +2178,32 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J26" s="4">
         <v>3</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -2213,32 +2213,32 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J27" s="4">
         <v>2</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -2248,14 +2248,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" s="4">
         <v>10</v>
@@ -2273,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -2293,22 +2293,22 @@
         <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J29" s="4">
         <v>2</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29"/>
@@ -2318,7 +2318,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
@@ -2328,22 +2328,22 @@
         <v>15</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J30" s="4">
         <v>3</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30"/>
@@ -2353,7 +2353,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
@@ -2363,22 +2363,22 @@
         <v>16</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J31" s="4">
         <v>3</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31"/>
@@ -2398,26 +2398,26 @@
         <v>18</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J32" s="4">
         <v>2</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2">
